--- a/tests/multialgorithm/fixtures/test_dry_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model_with_mass_computation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,10 +33,15 @@
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -48,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="141">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -116,289 +121,289 @@
     <t xml:space="preserve">Algorithm</t>
   </si>
   <si>
+    <t xml:space="preserve">Biomass reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism_biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracellular space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pseudo_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mol wt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mass = CVM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c] / k_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism_biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracellular space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pseudo_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mol wt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mass = CVM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dry weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat * specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c] / k_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_4</t>
   </si>
   <si>
     <t xml:space="preserve">Metabolism biomass reaction</t>
@@ -899,19 +904,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -922,24 +927,24 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>2000</v>
@@ -948,13 +953,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>0.0003</v>
@@ -965,13 +970,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>105</v>
       </c>
       <c r="D5" s="6" t="n">
         <v>0.0003</v>
@@ -982,13 +987,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0.0003</v>
@@ -1033,13 +1038,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>106</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>107</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>13</v>
@@ -1050,74 +1055,74 @@
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>109</v>
-      </c>
       <c r="C2" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="24" t="n">
         <v>-3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2" s="23"/>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>112</v>
-      </c>
       <c r="C3" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="24" t="n">
         <v>-4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>114</v>
-      </c>
       <c r="C4" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="24" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>116</v>
-      </c>
       <c r="C5" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="24" t="n">
         <v>2</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1156,7 +1161,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>13</v>
@@ -1167,13 +1172,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>117</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>118</v>
@@ -1221,10 +1226,10 @@
         <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1293,7 +1298,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -1350,7 +1355,7 @@
         <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>128</v>
@@ -1429,16 +1434,16 @@
         <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>140</v>
@@ -1532,16 +1537,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="1:3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1564,56 +1569,48 @@
         <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1655,7 +1652,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
@@ -1666,10 +1663,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -1678,15 +1675,15 @@
         <v>4.58E-017</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
@@ -1695,7 +1692,7 @@
         <v>1E-012</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1727,7 +1724,7 @@
     <col collapsed="false" hidden="false" max="4" min="1" style="3" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="3" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="14.5668016194332"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="3" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.78542510121457"/>
   </cols>
@@ -1743,19 +1740,19 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>13</v>
@@ -1766,10 +1763,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>1</v>
@@ -1783,16 +1780,16 @@
         <v>0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>1</v>
@@ -1806,16 +1803,16 @@
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>1</v>
@@ -1829,16 +1826,16 @@
         <v>0</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>53</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>1</v>
@@ -1852,16 +1849,16 @@
         <v>0</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>1</v>
@@ -1875,16 +1872,16 @@
         <v>0</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
@@ -1898,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1921,13 +1918,13 @@
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="5" min="2" style="3" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.78542510121457"/>
@@ -1937,13 +1934,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1952,33 +1949,33 @@
         <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="7" t="n">
         <v>0.0005</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">'Species types'!F3</f>
@@ -1995,16 +1992,16 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>0.0005</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G3" s="0" t="n">
         <f aca="false">'Species types'!F5</f>
@@ -2021,16 +2018,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="7" t="n">
         <v>0.001</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">'Species types'!F6</f>
@@ -2047,16 +2044,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="7" t="n">
         <v>0.002</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">'Species types'!F7</f>
@@ -2076,7 +2073,7 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="F6" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="11" t="n">
@@ -2090,16 +2087,16 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="7" t="n">
         <v>0.000148</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">'Species types'!F2</f>
@@ -2116,16 +2113,16 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="7" t="n">
         <v>0.0002</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">'Species types'!F3</f>
@@ -2144,7 +2141,7 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="F9" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="11" t="n">
@@ -2156,7 +2153,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="F10" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="11" t="n">
@@ -2202,10 +2199,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>13</v>
@@ -2249,7 +2246,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -2280,8 +2277,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="8" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="47.4534412955466"/>
     <col collapsed="false" hidden="false" max="9" min="5" style="8" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
   </cols>
@@ -2294,19 +2291,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>13</v>
@@ -2317,16 +2314,16 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="E2" s="16" t="n">
         <v>0</v>
@@ -2342,16 +2339,16 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="E3" s="16" t="n">
         <v>1</v>
@@ -2363,16 +2360,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="E4" s="16" t="n">
         <v>1</v>
@@ -2384,16 +2381,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="E5" s="16" t="n">
         <v>0</v>

--- a/tests/multialgorithm/fixtures/test_dry_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model_with_mass_computation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,35 +13,41 @@
     <sheet name="Submodels" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Compartments" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Species types" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Concentrations" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Observables" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Functions" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Biomass components" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Parameters" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Stop conditions" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="References" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Database references" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Species" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Concentrations" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -53,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="143">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -226,6 +232,36 @@
     <t xml:space="preserve">specie_name_6</t>
   </si>
   <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Species</t>
   </si>
   <si>
@@ -250,30 +286,12 @@
     <t xml:space="preserve">dry weight</t>
   </si>
   <si>
-    <t xml:space="preserve">specie_2[c]</t>
-  </si>
-  <si>
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">specie_4[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6[c]</t>
-  </si>
-  <si>
     <t xml:space="preserve">c Total</t>
   </si>
   <si>
-    <t xml:space="preserve">specie_1[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[e]</t>
-  </si>
-  <si>
     <t xml:space="preserve">e Total</t>
   </si>
   <si>
@@ -373,9 +391,6 @@
     <t xml:space="preserve">Coefficient</t>
   </si>
   <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
     <t xml:space="preserve">biomass_id_001</t>
   </si>
   <si>
@@ -401,9 +416,6 @@
   </si>
   <si>
     <t xml:space="preserve">biomass_comp_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
   </si>
   <si>
     <t xml:space="preserve">Metabolism biomass reaction</t>
@@ -891,10 +903,160 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="2" min="1" style="8" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="9" min="5" style="8" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D5"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -904,19 +1066,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -927,24 +1089,24 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>2000</v>
@@ -953,13 +1115,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>0.0003</v>
@@ -970,13 +1132,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D5" s="6" t="n">
         <v>0.0003</v>
@@ -987,142 +1149,19 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0.0003</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0.001</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="21" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="24" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="24" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1137,6 +1176,129 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="7" min="1" style="21" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="24" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="24" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1161,7 +1323,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>13</v>
@@ -1175,13 +1337,13 @@
         <v>27</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1195,7 +1357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1223,13 +1385,13 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1240,10 +1402,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -1252,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1271,7 +1433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1298,7 +1460,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -1315,7 +1477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1343,46 +1505,46 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>13</v>
@@ -1401,7 +1563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1419,10 +1581,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -1431,22 +1593,22 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1539,7 +1701,7 @@
   </sheetPr>
   <dimension ref="1:3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1724,7 +1886,7 @@
     <col collapsed="false" hidden="false" max="4" min="1" style="3" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="3" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="3" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.78542510121457"/>
   </cols>
@@ -1916,15 +2078,155 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D11" activeCellId="0" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="5" min="2" style="3" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.78542510121457"/>
@@ -1934,13 +2236,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1949,30 +2251,30 @@
         <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B2" s="7" t="n">
         <v>0.0005</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>33</v>
@@ -1992,13 +2294,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>0.0005</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>33</v>
@@ -2018,13 +2320,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B4" s="7" t="n">
         <v>0.001</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>33</v>
@@ -2044,13 +2346,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B5" s="7" t="n">
         <v>0.002</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>33</v>
@@ -2073,7 +2375,7 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="F6" s="12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="11" t="n">
@@ -2087,13 +2389,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B7" s="7" t="n">
         <v>0.000148</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>36</v>
@@ -2113,13 +2415,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B8" s="7" t="n">
         <v>0.0002</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>36</v>
@@ -2141,7 +2443,7 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="F9" s="12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="11" t="n">
@@ -2153,7 +2455,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="F10" s="12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="11" t="n">
@@ -2172,7 +2474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2199,10 +2501,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>13</v>
@@ -2219,7 +2521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2246,7 +2548,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -2261,154 +2563,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="8" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="47.4534412955466"/>
-    <col collapsed="false" hidden="false" max="9" min="5" style="8" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D5"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/tests/multialgorithm/fixtures/test_dry_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model_with_mass_computation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,35 +19,53 @@
     <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass components" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId19"/>
+  </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
     <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -59,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="142">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -109,319 +127,316 @@
     <t xml:space="preserve">Test model for TestExecutableModel</t>
   </si>
   <si>
+    <t xml:space="preserve">Rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank not used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">References</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism_biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracellular space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pseudo_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mol wt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mass = CVM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c] / k_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism biomass reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomass reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank not used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">References</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism_biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracellular space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pseudo_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mol wt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mass = CVM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dry weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat * specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c] / k_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No comment</t>
   </si>
   <si>
     <t xml:space="preserve">Submodels</t>
@@ -807,6 +822,51 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Model"/>
+      <sheetName val="Taxon"/>
+      <sheetName val="Submodels"/>
+      <sheetName val="Compartments"/>
+      <sheetName val="Species types"/>
+      <sheetName val="Species"/>
+      <sheetName val="Concentrations"/>
+      <sheetName val="Observables"/>
+      <sheetName val="Functions"/>
+      <sheetName val="Reactions"/>
+      <sheetName val="Rate laws"/>
+      <sheetName val="Biomass reactions"/>
+      <sheetName val="Biomass components"/>
+      <sheetName val="Parameters"/>
+      <sheetName val="Stop conditions"/>
+      <sheetName val="References"/>
+      <sheetName val="Database references"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -912,8 +972,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="8" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="49.165991902834"/>
     <col collapsed="false" hidden="false" max="9" min="5" style="8" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
   </cols>
@@ -926,39 +986,39 @@
         <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E2" s="16" t="n">
         <v>0</v>
@@ -974,16 +1034,16 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E3" s="16" t="n">
         <v>1</v>
@@ -995,16 +1055,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E4" s="16" t="n">
         <v>1</v>
@@ -1016,16 +1076,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E5" s="16" t="n">
         <v>0</v>
@@ -1066,47 +1126,47 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>2000</v>
@@ -1115,13 +1175,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B4" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>106</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>0.0003</v>
@@ -1132,13 +1192,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D5" s="6" t="n">
         <v>0.0003</v>
@@ -1149,13 +1209,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0.0003</v>
@@ -1180,19 +1240,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="21" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="21" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1200,91 +1260,27 @@
         <v>2</v>
       </c>
       <c r="C1" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="24" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="24" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>51</v>
+      <c r="D2" s="21" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1303,19 +1299,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="21" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="21" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1323,27 +1319,91 @@
         <v>2</v>
       </c>
       <c r="C1" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="24" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="24" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>120</v>
+    </row>
+    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1382,30 +1442,30 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -1414,10 +1474,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1438,18 +1498,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1457,12 +1517,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1482,16 +1539,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="1:1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="18" min="1" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="17" min="1" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1502,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>126</v>
@@ -1514,10 +1571,10 @@
         <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>130</v>
@@ -1544,14 +1601,12 @@
         <v>137</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:D1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1571,7 +1626,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1581,34 +1636,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1627,10 +1682,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1659,12 +1714,12 @@
         <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>18</v>
@@ -1672,17 +1727,10 @@
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1702,13 +1750,13 @@
   <dimension ref="1:3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1719,60 +1767,47 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1791,16 +1826,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="1:3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1811,54 +1846,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>4.58E-017</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>4.58E-017</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3"/>
+  <autoFilter ref="A1:D3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1875,20 +1902,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="1:7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="147" zoomScaleNormal="147" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="3" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="3" width="10.8178137651822"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1899,169 +1926,149 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>1</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C3" s="0"/>
       <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
+      <c r="E3" s="3" t="n">
+        <v>2</v>
+      </c>
       <c r="F3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>1</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C4" s="0"/>
       <c r="D4" s="0"/>
-      <c r="E4" s="0"/>
+      <c r="E4" s="3" t="n">
+        <v>3</v>
+      </c>
       <c r="F4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C5" s="0"/>
       <c r="D5" s="0"/>
-      <c r="E5" s="0"/>
-      <c r="F5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="F5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C6" s="0"/>
       <c r="D6" s="0"/>
-      <c r="E6" s="0"/>
-      <c r="F6" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="F6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="2" t="n">
+      <c r="E7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="F7" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>46</v>
+      <c r="G7" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J6"/>
+  <autoFilter ref="A1:I6"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2080,7 +2087,7 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -2090,8 +2097,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2102,104 +2109,104 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2220,248 +2227,245 @@
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="5" min="2" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="7" t="n">
         <v>0.0005</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" s="0" t="n">
-        <f aca="false">'Species types'!F3</f>
+        <f aca="false">'Species types'!E3</f>
         <v>2</v>
       </c>
       <c r="H2" s="10" t="n">
-        <f aca="false">Compartments!D$2</f>
+        <f aca="false">Compartments!$C$2</f>
         <v>4.58E-017</v>
       </c>
       <c r="I2" s="11" t="n">
-        <f aca="false">B2*H2*G2</f>
-        <v>4.58E-020</v>
-      </c>
+        <f aca="false">G2*H2</f>
+        <v>9.16E-017</v>
+      </c>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>0.0005</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G3" s="0" t="n">
-        <f aca="false">'Species types'!F5</f>
+        <f aca="false">'Species types'!E5</f>
         <v>4</v>
       </c>
       <c r="H3" s="10" t="n">
-        <f aca="false">Compartments!D$2</f>
+        <f aca="false">Compartments!$C$2</f>
         <v>4.58E-017</v>
       </c>
       <c r="I3" s="11" t="n">
-        <f aca="false">B3*H3*G3</f>
-        <v>9.16E-020</v>
-      </c>
+        <f aca="false">G3*H3</f>
+        <v>1.832E-016</v>
+      </c>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="7" t="n">
         <v>0.001</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G4" s="0" t="n">
-        <f aca="false">'Species types'!F6</f>
+        <f aca="false">'Species types'!E6</f>
         <v>5</v>
       </c>
       <c r="H4" s="10" t="n">
-        <f aca="false">Compartments!D$2</f>
+        <f aca="false">Compartments!$C$2</f>
         <v>4.58E-017</v>
       </c>
       <c r="I4" s="11" t="n">
-        <f aca="false">B4*H4*G4</f>
-        <v>2.29E-019</v>
-      </c>
+        <f aca="false">G4*H4</f>
+        <v>2.29E-016</v>
+      </c>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="7" t="n">
         <v>0.002</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G5" s="0" t="n">
-        <f aca="false">'Species types'!F7</f>
         <v>6</v>
       </c>
       <c r="H5" s="10" t="n">
-        <f aca="false">Compartments!D$2</f>
+        <f aca="false">Compartments!$C$2</f>
         <v>4.58E-017</v>
       </c>
       <c r="I5" s="11" t="n">
-        <f aca="false">B5*H5*G5</f>
-        <v>5.496E-019</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A6" s="0"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="F6" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="10"/>
+        <f aca="false">G5*H5</f>
+        <v>2.748E-016</v>
+      </c>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="7" t="n">
+        <v>0.000148</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">'Species types'!E2</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <f aca="false">Compartments!$C$3</f>
+        <v>1E-012</v>
+      </c>
       <c r="I6" s="11" t="n">
-        <f aca="false">SUBTOTAL(9,I2:I5)</f>
-        <v>9.16E-019</v>
-      </c>
-      <c r="J6" s="11" t="n">
-        <f aca="false">I6</f>
-        <v>9.16E-019</v>
-      </c>
+        <f aca="false">G6*H6</f>
+        <v>1E-012</v>
+      </c>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="7" t="n">
-        <v>0.000148</v>
+        <v>0.0002</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">'Species types'!E3</f>
+        <v>2</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <f aca="false">Compartments!$C$2</f>
+        <v>4.58E-017</v>
+      </c>
+      <c r="I7" s="11" t="n">
+        <f aca="false">G7*H7</f>
+        <v>9.16E-017</v>
+      </c>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11" t="n">
+        <f aca="false">SUBTOTAL(9,I2:I5)</f>
+        <v>7.786E-016</v>
+      </c>
+      <c r="J8" s="10" t="n">
+        <f aca="false">[1]Parameters!E6*I8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <f aca="false">'Species types'!F2</f>
-        <v>1</v>
-      </c>
-      <c r="H7" s="10" t="n">
-        <f aca="false">Compartments!D$3</f>
-        <v>1E-012</v>
-      </c>
-      <c r="I7" s="11" t="n">
-        <f aca="false">B7*H7*G7</f>
-        <v>1.48E-016</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="7" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <f aca="false">'Species types'!F3</f>
-        <v>2</v>
-      </c>
-      <c r="H8" s="10" t="n">
-        <f aca="false">Compartments!D$3</f>
-        <v>1E-012</v>
-      </c>
-      <c r="I8" s="11" t="n">
-        <f aca="false">B8*H8*G8</f>
-        <v>4E-016</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="F9" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="11" t="n">
-        <f aca="false">SUBTOTAL(9,I7:I8)</f>
-        <v>5.48E-016</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+        <f aca="false">SUBTOTAL(9,I6:I7)</f>
+        <v>1.0000916E-012</v>
+      </c>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="11" t="n">
-        <f aca="false">SUBTOTAL(9,I2:I8)</f>
-        <v>5.48916E-016</v>
-      </c>
+        <f aca="false">SUBTOTAL(9,I2:I7)</f>
+        <v>1.0008702E-012</v>
+      </c>
+      <c r="J10" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2479,10 +2483,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2490,7 +2494,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2498,15 +2502,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2526,18 +2524,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2545,12 +2543,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
     </row>

--- a/tests/multialgorithm/fixtures/test_dry_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model_with_mass_computation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -31,17 +31,17 @@
     <externalReference r:id="rId19"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="195">
   <si>
     <t>Id</t>
   </si>
@@ -181,76 +181,97 @@
     <t>ssa</t>
   </si>
   <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Initial volume, distribution</t>
+  </si>
+  <si>
+    <t>Initial volume, mean</t>
+  </si>
+  <si>
+    <t>Initial volume, standard deviation</t>
+  </si>
+  <si>
+    <t>Volume units</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Density units</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>mass * density</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>init_mass / init_volume</t>
+  </si>
+  <si>
+    <t>g ml^-1</t>
+  </si>
+  <si>
+    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>physical_3d</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
   </si>
   <si>
     <t>specie_1</t>
@@ -640,11 +661,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -680,8 +701,21 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,9 +723,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -703,55 +745,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -760,17 +753,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,24 +770,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -814,15 +812,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,7 +864,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,7 +888,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,13 +954,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,25 +1008,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,115 +1038,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,6 +1067,48 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1061,26 +1124,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1110,172 +1164,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1333,16 +1354,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1791,7 +1812,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1799,7 +1820,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -1807,7 +1828,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -1815,31 +1836,31 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
@@ -1850,7 +1871,7 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="22"/>
     </row>
     <row r="9" ht="40.5" spans="1:2">
       <c r="A9" s="4" t="s">
@@ -1937,22 +1958,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>18</v>
@@ -1969,16 +1990,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E2" s="12">
         <v>0</v>
@@ -1990,22 +2011,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E3" s="12">
         <v>1</v>
@@ -2017,16 +2038,16 @@
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
@@ -2038,16 +2059,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E5" s="12">
         <v>0</v>
@@ -2099,19 +2120,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2128,22 +2149,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2151,22 +2172,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2174,22 +2195,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2197,22 +2218,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2221,22 +2242,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2281,13 +2302,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2304,16 +2325,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2350,13 +2371,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2373,22 +2394,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2428,16 +2449,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>18</v>
@@ -2454,85 +2475,85 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9">
         <v>-3</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E3" s="9">
         <v>-4</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E4" s="9">
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E5" s="9">
         <v>2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2572,16 +2593,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2598,106 +2619,106 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D4" s="6">
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D5" s="6">
         <v>0.0003</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D6" s="6">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D7" s="6">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D8" s="6">
         <v>0.001</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2737,10 +2758,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2788,28 +2809,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2854,46 +2875,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -2928,7 +2949,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2936,7 +2957,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -2944,7 +2965,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B3" t="s">
@@ -2957,7 +2978,7 @@
       </c>
     </row>
     <row r="5" ht="27" spans="1:2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
@@ -2965,7 +2986,7 @@
       </c>
     </row>
     <row r="6" ht="27" spans="1:1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3032,7 +3053,7 @@
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="19"/>
       <c r="F2" s="2" t="s">
         <v>33</v>
       </c>
@@ -3058,30 +3079,30 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:J3"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1028" width="8.78333333333333" style="2"/>
-    <col min="1029" max="16384" width="9" style="2"/>
+    <col min="1" max="1031" width="8.78333333333333" style="2"/>
+    <col min="1032" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:14">
+    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:17">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -3106,90 +3127,114 @@
         <v>44</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:13">
+    <row r="2" customHeight="1" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="6">
+        <v>52</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="6">
         <v>4.58e-17</v>
       </c>
-      <c r="G2" s="2">
+      <c r="J2" s="2">
         <v>4.58e-18</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:16">
+      <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:13">
-      <c r="A3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2">
+      <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>52</v>
+      <c r="K3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D3">
+  <autoFilter ref="A1:G3">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3229,19 +3274,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3258,13 +3303,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3273,19 +3318,19 @@
         <v>0</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H2" s="16"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -3294,19 +3339,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H3" s="16"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -3315,19 +3360,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H4" s="16"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -3336,19 +3381,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H5" s="16"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -3357,19 +3402,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H6" s="16"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
@@ -3378,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="8:8">
@@ -3425,13 +3470,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3448,114 +3493,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3600,19 +3645,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3629,30 +3674,30 @@
     </row>
     <row r="2" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E2" s="16">
         <v>0.0005</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N2" s="2">
         <f>'Species types'!E3</f>
         <v>2</v>
       </c>
       <c r="O2" s="6" t="str">
-        <f>Compartments!$C$2</f>
-        <v>physical_3d</v>
+        <f>Compartments!$D$2</f>
+        <v>fluid</v>
       </c>
       <c r="P2" s="16" t="e">
         <f t="shared" ref="P2:P7" si="0">N2*O2</f>
@@ -3662,30 +3707,30 @@
     </row>
     <row r="3" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E3" s="16">
         <v>0.0005</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N3" s="2">
         <f>'Species types'!E5</f>
         <v>4</v>
       </c>
       <c r="O3" s="6" t="str">
-        <f>Compartments!$C$2</f>
-        <v>physical_3d</v>
+        <f>Compartments!$D$2</f>
+        <v>fluid</v>
       </c>
       <c r="P3" s="16" t="e">
         <f t="shared" si="0"/>
@@ -3695,30 +3740,30 @@
     </row>
     <row r="4" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E4" s="16">
         <v>0.001</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N4" s="2">
         <f>'Species types'!E6</f>
         <v>5</v>
       </c>
       <c r="O4" s="6" t="str">
-        <f>Compartments!$C$2</f>
-        <v>physical_3d</v>
+        <f>Compartments!$D$2</f>
+        <v>fluid</v>
       </c>
       <c r="P4" s="16" t="e">
         <f t="shared" si="0"/>
@@ -3728,29 +3773,29 @@
     </row>
     <row r="5" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E5" s="16">
         <v>0.002</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N5" s="2">
         <v>6</v>
       </c>
       <c r="O5" s="6" t="str">
-        <f>Compartments!$C$2</f>
-        <v>physical_3d</v>
+        <f>Compartments!$D$2</f>
+        <v>fluid</v>
       </c>
       <c r="P5" s="16" t="e">
         <f t="shared" si="0"/>
@@ -3760,30 +3805,30 @@
     </row>
     <row r="6" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E6" s="16">
         <v>0.000148</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N6" s="2">
         <f>'Species types'!E2</f>
         <v>1</v>
       </c>
       <c r="O6" s="6" t="str">
-        <f>Compartments!$C$3</f>
-        <v>physical_3d</v>
+        <f>Compartments!$D$3</f>
+        <v>fluid</v>
       </c>
       <c r="P6" s="16" t="e">
         <f t="shared" si="0"/>
@@ -3793,30 +3838,30 @@
     </row>
     <row r="7" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E7" s="16">
         <v>0.0002</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N7" s="2">
         <f>'Species types'!E3</f>
         <v>2</v>
       </c>
       <c r="O7" s="6" t="str">
-        <f>Compartments!$C$2</f>
-        <v>physical_3d</v>
+        <f>Compartments!$D$2</f>
+        <v>fluid</v>
       </c>
       <c r="P7" s="16" t="e">
         <f t="shared" si="0"/>
@@ -3826,7 +3871,7 @@
     </row>
     <row r="8" customHeight="1" spans="13:17">
       <c r="M8" s="17" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="16" t="e">
@@ -3840,7 +3885,7 @@
     </row>
     <row r="9" customHeight="1" spans="13:17">
       <c r="M9" s="17" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="16" t="e">
@@ -3851,7 +3896,7 @@
     </row>
     <row r="10" customHeight="1" spans="13:17">
       <c r="M10" s="17" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="16" t="e">
@@ -3894,10 +3939,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
@@ -3946,10 +3991,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>

--- a/tests/multialgorithm/fixtures/test_dry_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model_with_mass_computation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
     <sheet name="Evidence" sheetId="19" r:id="rId17"/>
     <sheet name="References" sheetId="16" r:id="rId18"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId19"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$7</definedName>
@@ -68,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="200">
   <si>
     <t>Id</t>
   </si>
@@ -379,6 +376,15 @@
     <t>Standard deviation</t>
   </si>
   <si>
+    <t>Compartment volume</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Dry weight</t>
+  </si>
+  <si>
     <t>dist-init-conc-specie_2[c]</t>
   </si>
   <si>
@@ -427,7 +433,7 @@
     <t>Flux max</t>
   </si>
   <si>
-    <t>Flux units</t>
+    <t>Flux bound units</t>
   </si>
   <si>
     <t>reaction_1</t>
@@ -515,6 +521,12 @@
   </si>
   <si>
     <t>k_cat_4_for * specie_2[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
   </si>
   <si>
     <t>dfba-obj-submodel_1</t>
@@ -660,11 +672,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
@@ -701,9 +713,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,106 +734,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,7 +764,75 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,6 +840,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,7 +876,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,31 +924,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,79 +936,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,13 +978,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,25 +1020,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,6 +1076,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1102,45 +1153,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1167,136 +1179,136 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1341,11 +1353,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1495,51 +1507,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Model"/>
-      <sheetName val="Taxon"/>
-      <sheetName val="Submodels"/>
-      <sheetName val="Compartments"/>
-      <sheetName val="Species types"/>
-      <sheetName val="Species"/>
-      <sheetName val="Concentrations"/>
-      <sheetName val="Observables"/>
-      <sheetName val="Functions"/>
-      <sheetName val="Reactions"/>
-      <sheetName val="Rate laws"/>
-      <sheetName val="Biomass reactions"/>
-      <sheetName val="Biomass components"/>
-      <sheetName val="Parameters"/>
-      <sheetName val="Stop conditions"/>
-      <sheetName val="References"/>
-      <sheetName val="Database references"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1937,7 +1904,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:D5"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
@@ -1958,22 +1925,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>18</v>
@@ -1990,16 +1957,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E2" s="12">
         <v>0</v>
@@ -2011,22 +1978,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E3" s="12">
         <v>1</v>
@@ -2038,16 +2005,16 @@
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
@@ -2059,16 +2026,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E5" s="12">
         <v>0</v>
@@ -2120,16 +2087,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>67</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>89</v>
@@ -2149,22 +2116,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2172,22 +2139,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2195,22 +2162,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2218,22 +2185,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2242,22 +2209,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2279,14 +2246,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -2294,7 +2261,7 @@
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2302,39 +2269,51 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:5">
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2371,13 +2350,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2394,22 +2373,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>56</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2449,13 +2428,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>99</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>89</v>
@@ -2475,13 +2454,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>90</v>
@@ -2490,21 +2469,21 @@
         <v>-3</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>92</v>
@@ -2513,18 +2492,18 @@
         <v>-4</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>93</v>
@@ -2533,18 +2512,18 @@
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>94</v>
@@ -2553,7 +2532,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2596,10 +2575,10 @@
         <v>67</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>89</v>
@@ -2619,100 +2598,100 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D4" s="6">
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D5" s="6">
         <v>0.0003</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D6" s="6">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="D7" s="6">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D8" s="6">
         <v>0.001</v>
@@ -2758,7 +2737,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>89</v>
@@ -2809,7 +2788,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>89</v>
@@ -2818,19 +2797,19 @@
         <v>67</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2875,46 +2854,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>67</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>41</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3081,17 +3060,19 @@
   <sheetPr/>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G$1:G$1048576"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1031" width="8.78333333333333" style="2"/>
+    <col min="1" max="9" width="8.78333333333333" style="2"/>
+    <col min="10" max="10" width="9.375" style="2"/>
+    <col min="11" max="1031" width="8.78333333333333" style="2"/>
     <col min="1032" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -3214,11 +3195,11 @@
       <c r="H3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
+      <c r="I3" s="6">
+        <v>1e-12</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1e-13</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>56</v>
@@ -3623,21 +3604,24 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.2833333333333" style="2"/>
-    <col min="2" max="4" width="8.78333333333333" style="2"/>
-    <col min="5" max="5" width="9.75" style="2"/>
+    <col min="1" max="1" width="21" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.78333333333333" style="2"/>
+    <col min="3" max="3" width="10" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="2" customWidth="1"/>
     <col min="6" max="15" width="8.78333333333333" style="2"/>
-    <col min="16" max="17" width="9" style="2"/>
+    <col min="16" max="16" width="10.25" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.25" style="2"/>
     <col min="18" max="1025" width="8.78333333333333" style="2"/>
     <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3671,10 +3655,25 @@
       <c r="K1" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="M1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="2" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>92</v>
@@ -3686,28 +3685,28 @@
         <v>0.0005</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="6">
+        <f>VLOOKUP(M2,Compartments!A:I,9,FALSE)</f>
+        <v>4.58e-17</v>
+      </c>
+      <c r="O2" s="2">
         <f>'Species types'!E3</f>
         <v>2</v>
       </c>
-      <c r="O2" s="6" t="str">
-        <f>Compartments!$D$2</f>
-        <v>fluid</v>
-      </c>
-      <c r="P2" s="16" t="e">
-        <f t="shared" ref="P2:P7" si="0">N2*O2</f>
-        <v>#VALUE!</v>
+      <c r="P2" s="16">
+        <f t="shared" ref="P2:P7" si="0">O2*N2</f>
+        <v>9.16e-17</v>
       </c>
       <c r="Q2" s="6"/>
     </row>
     <row r="3" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>94</v>
@@ -3719,28 +3718,28 @@
         <v>0.0005</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="6">
+        <f>VLOOKUP(M3,Compartments!A:I,9,FALSE)</f>
+        <v>4.58e-17</v>
+      </c>
+      <c r="O3" s="2">
         <f>'Species types'!E5</f>
         <v>4</v>
       </c>
-      <c r="O3" s="6" t="str">
-        <f>Compartments!$D$2</f>
-        <v>fluid</v>
-      </c>
-      <c r="P3" s="16" t="e">
+      <c r="P3" s="16">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>1.832e-16</v>
       </c>
       <c r="Q3" s="6"/>
     </row>
     <row r="4" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>95</v>
@@ -3752,28 +3751,28 @@
         <v>0.001</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="6">
+        <f>VLOOKUP(M4,Compartments!A:I,9,FALSE)</f>
+        <v>4.58e-17</v>
+      </c>
+      <c r="O4" s="2">
         <f>'Species types'!E6</f>
         <v>5</v>
       </c>
-      <c r="O4" s="6" t="str">
-        <f>Compartments!$D$2</f>
-        <v>fluid</v>
-      </c>
-      <c r="P4" s="16" t="e">
+      <c r="P4" s="16">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2.29e-16</v>
       </c>
       <c r="Q4" s="6"/>
     </row>
     <row r="5" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>96</v>
@@ -3785,27 +3784,27 @@
         <v>0.002</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="6">
+        <f>VLOOKUP(M5,Compartments!A:I,9,FALSE)</f>
+        <v>4.58e-17</v>
+      </c>
+      <c r="O5" s="2">
         <v>6</v>
       </c>
-      <c r="O5" s="6" t="str">
-        <f>Compartments!$D$2</f>
-        <v>fluid</v>
-      </c>
-      <c r="P5" s="16" t="e">
+      <c r="P5" s="16">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2.748e-16</v>
       </c>
       <c r="Q5" s="6"/>
     </row>
     <row r="6" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>97</v>
@@ -3817,28 +3816,28 @@
         <v>0.000148</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="6">
+        <f>VLOOKUP(M6,Compartments!A:I,9,FALSE)</f>
+        <v>1e-12</v>
+      </c>
+      <c r="O6" s="2">
         <f>'Species types'!E2</f>
         <v>1</v>
       </c>
-      <c r="O6" s="6" t="str">
-        <f>Compartments!$D$3</f>
-        <v>fluid</v>
-      </c>
-      <c r="P6" s="16" t="e">
+      <c r="P6" s="16">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>1e-12</v>
       </c>
       <c r="Q6" s="6"/>
     </row>
     <row r="7" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>98</v>
@@ -3850,58 +3849,58 @@
         <v>0.0002</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="6">
+        <f>VLOOKUP(M7,Compartments!A:I,9,FALSE)</f>
+        <v>1e-12</v>
+      </c>
+      <c r="O7" s="2">
         <f>'Species types'!E3</f>
         <v>2</v>
       </c>
-      <c r="O7" s="6" t="str">
-        <f>Compartments!$D$2</f>
-        <v>fluid</v>
-      </c>
-      <c r="P7" s="16" t="e">
+      <c r="P7" s="16">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>2e-12</v>
       </c>
       <c r="Q7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="13:17">
       <c r="M8" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="16" t="e">
-        <f>SUBTOTAL(9,P2:P5)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q8" s="6" t="e">
-        <f>[1]Parameters!E6*P8</f>
-        <v>#VALUE!</v>
+        <v>113</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="P8" s="16">
+        <f>SUMIF(M$2:M$7,"c",P$2:P$7)</f>
+        <v>7.786e-16</v>
+      </c>
+      <c r="Q8" s="6">
+        <f>P8*Parameters!D2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="13:17">
       <c r="M9" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="16" t="e">
-        <f>SUBTOTAL(9,P6:P7)</f>
-        <v>#VALUE!</v>
+        <v>114</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="P9" s="16">
+        <f>SUMIF(M$2:M$7,"e",P$2:P$7)</f>
+        <v>3e-12</v>
       </c>
       <c r="Q9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="13:17">
       <c r="M10" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="16" t="e">
+        <v>115</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="P10" s="16">
         <f>SUBTOTAL(9,P2:P7)</f>
-        <v>#VALUE!</v>
+        <v>3.0007786e-12</v>
       </c>
       <c r="Q10" s="6"/>
     </row>
@@ -3939,7 +3938,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>89</v>
@@ -3991,7 +3990,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>89</v>

--- a/tests/multialgorithm/fixtures/test_dry_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model_with_mass_computation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="207">
   <si>
     <t>Id</t>
   </si>
@@ -190,466 +190,487 @@
     <t>Parent compartment</t>
   </si>
   <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>density_e</t>
+  </si>
+  <si>
+    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>specie_1</t>
+  </si>
+  <si>
+    <t>specie_name_1</t>
+  </si>
+  <si>
+    <t>CHO</t>
+  </si>
+  <si>
+    <t>pseudo_species</t>
+  </si>
+  <si>
+    <t>specie_2</t>
+  </si>
+  <si>
+    <t>specie_name_2</t>
+  </si>
+  <si>
+    <t>NOP3</t>
+  </si>
+  <si>
+    <t>specie_3</t>
+  </si>
+  <si>
+    <t>specie_name_3</t>
+  </si>
+  <si>
+    <t>N2O2P6</t>
+  </si>
+  <si>
+    <t>specie_4</t>
+  </si>
+  <si>
+    <t>specie_name_4</t>
+  </si>
+  <si>
+    <t>N5O5P15</t>
+  </si>
+  <si>
+    <t>specie_5</t>
+  </si>
+  <si>
+    <t>specie_name_5</t>
+  </si>
+  <si>
+    <t>N2O2P7</t>
+  </si>
+  <si>
+    <t>specie_6</t>
+  </si>
+  <si>
+    <t>specie_name_6</t>
+  </si>
+  <si>
+    <t>NOP</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>specie_1[c]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>specie_2[c]</t>
+  </si>
+  <si>
+    <t>specie_3[c]</t>
+  </si>
+  <si>
+    <t>specie_4[c]</t>
+  </si>
+  <si>
+    <t>specie_5[c]</t>
+  </si>
+  <si>
+    <t>specie_6[c]</t>
+  </si>
+  <si>
+    <t>specie_1[e]</t>
+  </si>
+  <si>
+    <t>specie_2[e]</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>Compartment volume</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Dry weight</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_2[c]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_4[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_5[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_6[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_1[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_2[e]</t>
+  </si>
+  <si>
+    <t>c Total</t>
+  </si>
+  <si>
+    <t>e Total</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>volume_c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>volume_e</t>
+  </si>
+  <si>
+    <t>e / density_e</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Flux min</t>
+  </si>
+  <si>
+    <t>Flux max</t>
+  </si>
+  <si>
+    <t>Flux bound units</t>
+  </si>
+  <si>
+    <t>reaction_1</t>
+  </si>
+  <si>
+    <t>reaction_name_1</t>
+  </si>
+  <si>
+    <t>specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
+  </si>
+  <si>
+    <t>M s^-1</t>
+  </si>
+  <si>
+    <t>reaction_2</t>
+  </si>
+  <si>
+    <t>reaction_name_2</t>
+  </si>
+  <si>
+    <t>[c]: (2) specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t>reaction_3</t>
+  </si>
+  <si>
+    <t>reaction_name_3</t>
+  </si>
+  <si>
+    <t>[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
+  </si>
+  <si>
+    <t>reaction_4</t>
+  </si>
+  <si>
+    <t>reaction_name_4</t>
+  </si>
+  <si>
+    <t>[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>reaction_1-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>k_cat_1_for * max( specie_1[e], specie_2[e] )</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>reaction_2-forward</t>
+  </si>
+  <si>
+    <t>k_cat_2_for * specie_2[c]</t>
+  </si>
+  <si>
+    <t>reaction_3-forward</t>
+  </si>
+  <si>
+    <t>k_cat_3_for * specie_4[c] / (K_m_3 * Avogadro * volume_c + specie_4[c])</t>
+  </si>
+  <si>
+    <t>reaction_3-backward</t>
+  </si>
+  <si>
+    <t>backward</t>
+  </si>
+  <si>
+    <t>k_cat_3_rev * (specie_5[c] + specie_6[c])</t>
+  </si>
+  <si>
+    <t>reaction_4-forward</t>
+  </si>
+  <si>
+    <t>k_cat_4_for * specie_2[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
+  </si>
+  <si>
+    <t>dfba-obj-submodel_1</t>
+  </si>
+  <si>
+    <t>Metabolism_biomass</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>Cell size units</t>
+  </si>
+  <si>
+    <t>Metabolism biomass reaction</t>
+  </si>
+  <si>
+    <t>No comment</t>
+  </si>
+  <si>
+    <t>dFBA net reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-specie_1[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_1</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-specie_2[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_2</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-specie_3[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_3</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-specie_4[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_4</t>
+  </si>
+  <si>
+    <t>Standard error</t>
+  </si>
+  <si>
+    <t>fractionDryWeight</t>
+  </si>
+  <si>
+    <t>Fraction of cell mass which is non water</t>
+  </si>
+  <si>
+    <t>[Ref-0006]</t>
+  </si>
+  <si>
+    <t>k_cat_1_for</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>molecule^-1 s^-1</t>
+  </si>
+  <si>
+    <t>k_cat_2_for</t>
+  </si>
+  <si>
+    <t>k_cat_3_for</t>
+  </si>
+  <si>
+    <t>k_cat_3_rev</t>
+  </si>
+  <si>
+    <t>k_cat_4_for</t>
+  </si>
+  <si>
+    <t>K_m_3</t>
+  </si>
+  <si>
+    <t>K_m</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule mol^-1</t>
+  </si>
+  <si>
+    <t>g l^-1</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Genetic variant</t>
+  </si>
+  <si>
+    <t>Temperature (C)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
     <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>extracellular</t>
-  </si>
-  <si>
-    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>specie_1</t>
-  </si>
-  <si>
-    <t>specie_name_1</t>
-  </si>
-  <si>
-    <t>CHO</t>
-  </si>
-  <si>
-    <t>pseudo_species</t>
-  </si>
-  <si>
-    <t>specie_2</t>
-  </si>
-  <si>
-    <t>specie_name_2</t>
-  </si>
-  <si>
-    <t>NOP3</t>
-  </si>
-  <si>
-    <t>specie_3</t>
-  </si>
-  <si>
-    <t>specie_name_3</t>
-  </si>
-  <si>
-    <t>N2O2P6</t>
-  </si>
-  <si>
-    <t>specie_4</t>
-  </si>
-  <si>
-    <t>specie_name_4</t>
-  </si>
-  <si>
-    <t>N5O5P15</t>
-  </si>
-  <si>
-    <t>specie_5</t>
-  </si>
-  <si>
-    <t>specie_name_5</t>
-  </si>
-  <si>
-    <t>N2O2P7</t>
-  </si>
-  <si>
-    <t>specie_6</t>
-  </si>
-  <si>
-    <t>specie_name_6</t>
-  </si>
-  <si>
-    <t>NOP</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>specie_1[c]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>specie_2[c]</t>
-  </si>
-  <si>
-    <t>specie_3[c]</t>
-  </si>
-  <si>
-    <t>specie_4[c]</t>
-  </si>
-  <si>
-    <t>specie_5[c]</t>
-  </si>
-  <si>
-    <t>specie_6[c]</t>
-  </si>
-  <si>
-    <t>specie_1[e]</t>
-  </si>
-  <si>
-    <t>specie_2[e]</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>Compartment volume</t>
-  </si>
-  <si>
-    <t>Mass</t>
-  </si>
-  <si>
-    <t>Dry weight</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_2[c]</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_4[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_5[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_6[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_1[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_2[e]</t>
-  </si>
-  <si>
-    <t>c Total</t>
-  </si>
-  <si>
-    <t>e Total</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>Flux min</t>
-  </si>
-  <si>
-    <t>Flux max</t>
-  </si>
-  <si>
-    <t>Flux bound units</t>
-  </si>
-  <si>
-    <t>reaction_1</t>
-  </si>
-  <si>
-    <t>reaction_name_1</t>
-  </si>
-  <si>
-    <t>specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
-  </si>
-  <si>
-    <t>M s^-1</t>
-  </si>
-  <si>
-    <t>reaction_2</t>
-  </si>
-  <si>
-    <t>reaction_name_2</t>
-  </si>
-  <si>
-    <t>[c]: (2) specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t>reaction_3</t>
-  </si>
-  <si>
-    <t>reaction_name_3</t>
-  </si>
-  <si>
-    <t>[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
-  </si>
-  <si>
-    <t>reaction_4</t>
-  </si>
-  <si>
-    <t>reaction_name_4</t>
-  </si>
-  <si>
-    <t>[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>reaction_1-forward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>k_cat_1_for * max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t>s^-1</t>
-  </si>
-  <si>
-    <t>reaction_2-forward</t>
-  </si>
-  <si>
-    <t>k_cat_2_for * specie_2[c]</t>
-  </si>
-  <si>
-    <t>reaction_3-forward</t>
-  </si>
-  <si>
-    <t>k_cat_3_for * specie_4[c] / (K_m_3 + specie_4[c])</t>
-  </si>
-  <si>
-    <t>reaction_3-backward</t>
-  </si>
-  <si>
-    <t>backward</t>
-  </si>
-  <si>
-    <t>k_cat_3_rev * (specie_5[c] + specie_6[c])</t>
-  </si>
-  <si>
-    <t>reaction_4-forward</t>
-  </si>
-  <si>
-    <t>k_cat_4_for * specie_2[c]</t>
-  </si>
-  <si>
-    <t>Reaction rate units</t>
-  </si>
-  <si>
-    <t>Coefficient units</t>
-  </si>
-  <si>
-    <t>dfba-obj-submodel_1</t>
-  </si>
-  <si>
-    <t>Metabolism_biomass</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>Cell size units</t>
-  </si>
-  <si>
-    <t>Metabolism biomass reaction</t>
-  </si>
-  <si>
-    <t>No comment</t>
-  </si>
-  <si>
-    <t>dFBA net reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-specie_1[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_1</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-specie_2[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_2</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-specie_3[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_3</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-specie_4[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_4</t>
-  </si>
-  <si>
-    <t>Standard error</t>
-  </si>
-  <si>
-    <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>Fraction of cell mass which is non water</t>
-  </si>
-  <si>
-    <t>[Ref-0006]</t>
-  </si>
-  <si>
-    <t>k_cat_1_for</t>
-  </si>
-  <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>molecule^-1 s^-1</t>
-  </si>
-  <si>
-    <t>k_cat_2_for</t>
-  </si>
-  <si>
-    <t>k_cat_3_for</t>
-  </si>
-  <si>
-    <t>k_cat_3_rev</t>
-  </si>
-  <si>
-    <t>k_cat_4_for</t>
-  </si>
-  <si>
-    <t>K_m_3</t>
-  </si>
-  <si>
-    <t>K_m</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Genetic variant</t>
-  </si>
-  <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>Growth media</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Editor</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Publication</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Series</t>
   </si>
   <si>
     <t>Number</t>
@@ -674,9 +695,9 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
@@ -713,16 +734,9 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,13 +745,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -756,31 +763,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,6 +793,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -802,14 +815,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,22 +838,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,11 +853,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -876,7 +897,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,13 +981,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,85 +1053,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,61 +1077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,17 +1100,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,44 +1139,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1163,156 +1166,174 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1355,6 +1376,9 @@
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1779,7 +1803,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1787,7 +1811,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -1795,7 +1819,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -1803,31 +1827,31 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
@@ -1838,25 +1862,25 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="23"/>
     </row>
     <row r="9" ht="40.5" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="24"/>
     </row>
     <row r="10" ht="27" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="24"/>
     </row>
     <row r="11" ht="27" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1864,25 +1888,25 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="25"/>
     </row>
     <row r="13" ht="27" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="25"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="25"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1925,22 +1949,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>18</v>
@@ -1957,16 +1981,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E2" s="12">
         <v>0</v>
@@ -1978,22 +2002,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E3" s="12">
         <v>1</v>
@@ -2005,16 +2029,16 @@
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
@@ -2026,16 +2050,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E5" s="12">
         <v>0</v>
@@ -2065,7 +2089,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
@@ -2073,7 +2097,7 @@
     <col min="1" max="3" width="8.78333333333333" style="2"/>
     <col min="4" max="4" width="9.25" style="2"/>
     <col min="5" max="5" width="8.78333333333333" style="2"/>
-    <col min="6" max="6" width="41.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="60.625" style="2" customWidth="1"/>
     <col min="7" max="9" width="9.25" style="2"/>
     <col min="10" max="1025" width="8.78333333333333" style="2"/>
     <col min="1026" max="16384" width="9" style="2"/>
@@ -2087,19 +2111,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2116,22 +2140,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2139,22 +2163,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2162,22 +2186,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2185,22 +2209,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2209,22 +2233,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2248,7 +2272,7 @@
   <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2269,19 +2293,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2298,19 +2322,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2350,13 +2374,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2373,22 +2397,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2428,16 +2452,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>18</v>
@@ -2454,85 +2478,85 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="9">
         <v>-3</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" s="9">
         <v>-4</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" s="9">
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" s="9">
         <v>2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2545,17 +2569,17 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="8.78333333333333" style="2"/>
     <col min="4" max="4" width="9.25" style="2"/>
@@ -2572,16 +2596,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2598,106 +2622,148 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D4" s="6">
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="D5" s="6">
         <v>0.0003</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D6" s="6">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D7" s="6">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D8" s="6">
         <v>0.001</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="6">
+        <v>6.02214075862e+23</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1100</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2737,10 +2803,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2788,28 +2854,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2854,46 +2920,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -2928,7 +2994,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2936,7 +3002,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -2944,7 +3010,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B3" t="s">
@@ -2957,7 +3023,7 @@
       </c>
     </row>
     <row r="5" ht="27" spans="1:2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
@@ -2965,7 +3031,7 @@
       </c>
     </row>
     <row r="6" ht="27" spans="1:1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3032,7 +3098,7 @@
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="19"/>
+      <c r="D2" s="20"/>
       <c r="F2" s="2" t="s">
         <v>33</v>
       </c>
@@ -3058,26 +3124,26 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="9" width="8.78333333333333" style="2"/>
     <col min="10" max="10" width="9.375" style="2"/>
-    <col min="11" max="1031" width="8.78333333333333" style="2"/>
-    <col min="1032" max="16384" width="9" style="2"/>
+    <col min="11" max="1030" width="8.78333333333333" style="2"/>
+    <col min="1031" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A1" s="18" t="s">
+    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:16">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3114,45 +3180,42 @@
         <v>46</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:15">
+      <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:16">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I2" s="6">
         <v>4.58e-17</v>
@@ -3161,39 +3224,36 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="2" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:16">
-      <c r="A3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I3" s="6">
         <v>1e-12</v>
@@ -3202,16 +3262,13 @@
         <v>1e-13</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3255,19 +3312,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3284,13 +3341,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3298,20 +3355,20 @@
       <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="16"/>
+      <c r="G2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -3319,20 +3376,20 @@
       <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="16"/>
+      <c r="G3" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -3340,20 +3397,20 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="16"/>
+      <c r="G4" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -3361,20 +3418,20 @@
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="16"/>
+      <c r="G5" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -3382,20 +3439,20 @@
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="16"/>
+      <c r="G6" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
@@ -3403,8 +3460,8 @@
       <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>71</v>
+      <c r="G7" s="17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="8:8">
@@ -3451,13 +3508,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3474,114 +3531,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3599,12 +3656,12 @@
   <sheetPr/>
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomRight" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3629,19 +3686,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3656,39 +3713,39 @@
         <v>27</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0.0005</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="16">
-        <v>0.0005</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N2" s="6">
         <f>VLOOKUP(M2,Compartments!A:I,9,FALSE)</f>
@@ -3698,7 +3755,7 @@
         <f>'Species types'!E3</f>
         <v>2</v>
       </c>
-      <c r="P2" s="16">
+      <c r="P2" s="17">
         <f t="shared" ref="P2:P7" si="0">O2*N2</f>
         <v>9.16e-17</v>
       </c>
@@ -3706,22 +3763,22 @@
     </row>
     <row r="3" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="16">
+        <v>93</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="17">
         <v>0.0005</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>107</v>
+      <c r="G3" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N3" s="6">
         <f>VLOOKUP(M3,Compartments!A:I,9,FALSE)</f>
@@ -3731,7 +3788,7 @@
         <f>'Species types'!E5</f>
         <v>4</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="17">
         <f t="shared" si="0"/>
         <v>1.832e-16</v>
       </c>
@@ -3739,22 +3796,22 @@
     </row>
     <row r="4" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="16">
+        <v>94</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="17">
         <v>0.001</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>107</v>
+      <c r="G4" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N4" s="6">
         <f>VLOOKUP(M4,Compartments!A:I,9,FALSE)</f>
@@ -3764,7 +3821,7 @@
         <f>'Species types'!E6</f>
         <v>5</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="17">
         <f t="shared" si="0"/>
         <v>2.29e-16</v>
       </c>
@@ -3772,22 +3829,22 @@
     </row>
     <row r="5" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="16">
+        <v>95</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="17">
         <v>0.002</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>107</v>
+      <c r="G5" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP(M5,Compartments!A:I,9,FALSE)</f>
@@ -3796,7 +3853,7 @@
       <c r="O5" s="2">
         <v>6</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="17">
         <f t="shared" si="0"/>
         <v>2.748e-16</v>
       </c>
@@ -3804,22 +3861,22 @@
     </row>
     <row r="6" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="16">
+        <v>96</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="17">
         <v>0.000148</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>107</v>
+      <c r="G6" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP(M6,Compartments!A:I,9,FALSE)</f>
@@ -3829,7 +3886,7 @@
         <f>'Species types'!E2</f>
         <v>1</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="17">
         <f t="shared" si="0"/>
         <v>1e-12</v>
       </c>
@@ -3837,22 +3894,22 @@
     </row>
     <row r="7" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="16">
+        <v>97</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="17">
         <v>0.0002</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>107</v>
+      <c r="G7" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N7" s="6">
         <f>VLOOKUP(M7,Compartments!A:I,9,FALSE)</f>
@@ -3862,18 +3919,18 @@
         <f>'Species types'!E3</f>
         <v>2</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="17">
         <f t="shared" si="0"/>
         <v>2e-12</v>
       </c>
       <c r="Q7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="13:17">
-      <c r="M8" s="17" t="s">
-        <v>113</v>
+      <c r="M8" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="N8" s="6"/>
-      <c r="P8" s="16">
+      <c r="P8" s="17">
         <f>SUMIF(M$2:M$7,"c",P$2:P$7)</f>
         <v>7.786e-16</v>
       </c>
@@ -3883,22 +3940,22 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="13:17">
-      <c r="M9" s="17" t="s">
-        <v>114</v>
+      <c r="M9" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="P9" s="16">
+      <c r="P9" s="17">
         <f>SUMIF(M$2:M$7,"e",P$2:P$7)</f>
         <v>3e-12</v>
       </c>
       <c r="Q9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="13:17">
-      <c r="M10" s="17" t="s">
-        <v>115</v>
+      <c r="M10" s="18" t="s">
+        <v>114</v>
       </c>
       <c r="N10" s="6"/>
-      <c r="P10" s="16">
+      <c r="P10" s="17">
         <f>SUBTOTAL(9,P2:P7)</f>
         <v>3.0007786e-12</v>
       </c>
@@ -3938,10 +3995,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
@@ -3966,17 +4023,17 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1025" width="8.78333333333333" style="2"/>
     <col min="1026" max="16384" width="9" style="2"/>
@@ -3990,10 +4047,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -4006,6 +4063,30 @@
       </c>
       <c r="H1" s="4" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_dry_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model_with_mass_computation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="6"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="208">
   <si>
     <t>Id</t>
   </si>
@@ -436,6 +436,9 @@
     <t>Reversible</t>
   </si>
   <si>
+    <t>Rate units</t>
+  </si>
+  <si>
     <t>Flux min</t>
   </si>
   <si>
@@ -454,6 +457,9 @@
     <t>specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
   </si>
   <si>
+    <t>s^-1</t>
+  </si>
+  <si>
     <t>M s^-1</t>
   </si>
   <si>
@@ -500,9 +506,6 @@
   </si>
   <si>
     <t>k_cat_1_for * max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t>s^-1</t>
   </si>
   <si>
     <t>reaction_2-forward</t>
@@ -697,8 +700,8 @@
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -734,17 +737,19 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -762,11 +767,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -774,13 +785,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -799,16 +803,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,11 +825,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -847,38 +879,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -897,25 +900,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,37 +912,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,7 +948,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,43 +1062,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,49 +1080,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,21 +1112,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1139,28 +1127,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,156 +1160,179 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1921,14 +1924,14 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
@@ -1936,12 +1939,12 @@
     <col min="1" max="2" width="8.78333333333333" style="2"/>
     <col min="3" max="3" width="13.2833333333333" style="2"/>
     <col min="4" max="4" width="49.1666666666667" style="2"/>
-    <col min="5" max="9" width="8.78333333333333" style="2"/>
-    <col min="10" max="1025" width="8.78333333333333" style="10"/>
-    <col min="1026" max="16384" width="9" style="10"/>
+    <col min="5" max="10" width="8.78333333333333" style="2"/>
+    <col min="11" max="1026" width="8.78333333333333" style="10"/>
+    <col min="1027" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1967,107 +1970,122 @@
         <v>125</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:9">
+    <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E2" s="12">
         <v>0</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="12">
         <v>0</v>
       </c>
-      <c r="G2" s="12">
+      <c r="H2" s="12">
         <v>1</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:9">
+      <c r="I2" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E3" s="12">
         <v>1</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:9">
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:9">
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E5" s="12">
         <v>0</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D5">
@@ -2111,10 +2129,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>66</v>
@@ -2140,22 +2158,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2163,22 +2181,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2186,22 +2204,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2209,22 +2227,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2233,22 +2251,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2302,10 +2320,10 @@
         <v>88</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2322,19 +2340,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2380,7 +2398,7 @@
         <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2397,22 +2415,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2452,13 +2470,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>98</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>88</v>
@@ -2478,13 +2496,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>89</v>
@@ -2493,21 +2511,21 @@
         <v>-3</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>91</v>
@@ -2516,18 +2534,18 @@
         <v>-4</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>92</v>
@@ -2536,18 +2554,18 @@
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>93</v>
@@ -2556,7 +2574,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2599,10 +2617,10 @@
         <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>88</v>
@@ -2622,100 +2640,100 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D4" s="6">
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D5" s="6">
         <v>0.0003</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D6" s="6">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D7" s="6">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D8" s="6">
         <v>0.001</v>
@@ -2726,16 +2744,16 @@
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D9" s="6">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
@@ -2743,13 +2761,13 @@
         <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D10" s="2">
         <v>1100</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
@@ -2757,17 +2775,17 @@
         <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D11" s="2">
         <v>1000</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F8">
+  <autoFilter ref="A1:F11">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2854,7 +2872,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>88</v>
@@ -2863,19 +2881,19 @@
         <v>66</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2920,46 +2938,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>66</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3656,7 +3674,7 @@
   <sheetPr/>
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/multialgorithm/fixtures/test_dry_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model_with_mass_computation.xlsx
@@ -5,67 +5,68 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
     <sheet name="Taxon" sheetId="2" r:id="rId2"/>
-    <sheet name="Submodels" sheetId="3" r:id="rId3"/>
-    <sheet name="Compartments" sheetId="4" r:id="rId4"/>
-    <sheet name="Species types" sheetId="5" r:id="rId5"/>
-    <sheet name="Species" sheetId="6" r:id="rId6"/>
-    <sheet name="Initial species concentrations" sheetId="7" r:id="rId7"/>
-    <sheet name="Observables" sheetId="8" r:id="rId8"/>
-    <sheet name="Functions" sheetId="9" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="10" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="11" r:id="rId11"/>
-    <sheet name="dFBA objectives" sheetId="18" r:id="rId12"/>
-    <sheet name="dFBA net reactions" sheetId="12" r:id="rId13"/>
-    <sheet name="dFBA net species" sheetId="13" r:id="rId14"/>
-    <sheet name="Parameters" sheetId="14" r:id="rId15"/>
-    <sheet name="Stop conditions" sheetId="15" r:id="rId16"/>
-    <sheet name="Evidence" sheetId="19" r:id="rId17"/>
-    <sheet name="References" sheetId="16" r:id="rId18"/>
+    <sheet name="Environment" sheetId="20" r:id="rId3"/>
+    <sheet name="Submodels" sheetId="3" r:id="rId4"/>
+    <sheet name="Compartments" sheetId="4" r:id="rId5"/>
+    <sheet name="Species types" sheetId="5" r:id="rId6"/>
+    <sheet name="Species" sheetId="6" r:id="rId7"/>
+    <sheet name="Initial species concentrations" sheetId="7" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
+    <sheet name="dFBA objectives" sheetId="18" r:id="rId13"/>
+    <sheet name="dFBA net reactions" sheetId="12" r:id="rId14"/>
+    <sheet name="dFBA net species" sheetId="13" r:id="rId15"/>
+    <sheet name="Parameters" sheetId="14" r:id="rId16"/>
+    <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
+    <sheet name="Evidence" sheetId="19" r:id="rId18"/>
+    <sheet name="References" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3">Submodels!#REF!</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="212">
   <si>
     <t>Id</t>
   </si>
@@ -133,7 +134,7 @@
     <t>Updated</t>
   </si>
   <si>
-    <t>ASP_test</t>
+    <t>taxon</t>
   </si>
   <si>
     <t>Test model for TestExecutableModel</t>
@@ -151,6 +152,21 @@
     <t>References</t>
   </si>
   <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -647,9 +663,6 @@
   </si>
   <si>
     <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
   </si>
   <si>
     <t>Growth media</t>
@@ -700,8 +713,8 @@
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -737,47 +750,17 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -797,13 +780,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -811,7 +787,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,35 +795,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,7 +811,73 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -877,9 +891,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -900,13 +913,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,13 +943,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,13 +979,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,79 +1081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,43 +1093,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,54 +1125,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1186,6 +1151,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1203,140 +1216,140 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1395,6 +1408,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1806,7 +1825,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1814,7 +1833,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -1822,7 +1841,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -1830,31 +1849,31 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
@@ -1865,25 +1884,25 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="25"/>
     </row>
     <row r="9" ht="40.5" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="26"/>
     </row>
     <row r="10" ht="27" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="26"/>
     </row>
     <row r="11" ht="27" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="27" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1891,25 +1910,25 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="27"/>
     </row>
     <row r="13" ht="27" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="27"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="25"/>
+      <c r="B14" s="27"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1924,9 +1943,85 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1025" width="8.78333333333333" style="2"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1952,31 +2047,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>19</v>
@@ -1987,22 +2082,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E2" s="12">
         <v>0</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G2" s="12">
         <v>0</v>
@@ -2011,28 +2106,28 @@
         <v>1</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J2" s="14"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E3" s="12">
         <v>1</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -2041,22 +2136,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
@@ -2065,22 +2160,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E5" s="12">
         <v>0</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -2097,7 +2192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L7"/>
@@ -2129,25 +2224,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2158,22 +2253,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2181,22 +2276,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2204,22 +2299,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2227,22 +2322,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2251,22 +2346,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2285,7 +2380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K2"/>
@@ -2311,25 +2406,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2340,19 +2435,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2364,7 +2459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I2"/>
@@ -2392,19 +2487,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -2415,22 +2510,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2440,7 +2535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J5"/>
@@ -2470,22 +2565,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>19</v>
@@ -2496,85 +2591,85 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E2" s="9">
         <v>-3</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E3" s="9">
         <v>-4</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E4" s="9">
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E5" s="9">
         <v>2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2584,7 +2679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J11"/>
@@ -2614,22 +2709,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>19</v>
@@ -2640,148 +2735,148 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D4" s="6">
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D5" s="6">
         <v>0.0003</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D6" s="6">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="D7" s="6">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D8" s="6">
         <v>0.001</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D9" s="6">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D10" s="2">
         <v>1100</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D11" s="2">
         <v>1000</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2794,7 +2889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -2821,16 +2916,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -2846,7 +2941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N1"/>
@@ -2872,34 +2967,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>194</v>
+        <v>32</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>19</v>
@@ -2914,7 +3009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ1"/>
@@ -2938,46 +3033,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3003,53 +3098,54 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D12" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333"/>
+    <col min="1" max="1025" width="8.78333333333333" style="22"/>
+    <col min="1026" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="21" t="s">
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="21" t="s">
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" ht="40.5" spans="1:1">
+    <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="1:2">
-      <c r="A5" s="21" t="s">
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" ht="27" spans="1:1">
-      <c r="A6" s="21" t="s">
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="23" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3061,6 +3157,84 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="2" customWidth="1"/>
+    <col min="3" max="1018" width="8.78333333333333" style="2"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="21"/>
+    <col min="1020" max="16384" width="9" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ3"/>
@@ -3088,13 +3262,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>19</v>
@@ -3108,28 +3282,28 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D2" s="20"/>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3139,7 +3313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P3"/>
@@ -3168,40 +3342,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>19</v>
@@ -3212,28 +3386,28 @@
     </row>
     <row r="2" customHeight="1" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I2" s="6">
         <v>4.58e-17</v>
@@ -3242,36 +3416,36 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="I3" s="6">
         <v>1e-12</v>
@@ -3280,13 +3454,13 @@
         <v>1e-13</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3299,7 +3473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K14"/>
@@ -3330,25 +3504,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3359,13 +3533,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3374,19 +3548,19 @@
         <v>0</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H2" s="17"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -3395,19 +3569,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H3" s="17"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -3416,19 +3590,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H4" s="17"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -3437,19 +3611,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H5" s="17"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -3458,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H6" s="17"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
@@ -3479,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="8:8">
@@ -3498,7 +3672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I9"/>
@@ -3526,19 +3700,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -3549,114 +3723,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3669,7 +3843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q10"/>
@@ -3704,25 +3878,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3731,39 +3905,39 @@
         <v>27</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E2" s="17">
         <v>0.0005</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N2" s="6">
         <f>VLOOKUP(M2,Compartments!A:I,9,FALSE)</f>
@@ -3781,22 +3955,22 @@
     </row>
     <row r="3" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E3" s="17">
         <v>0.0005</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N3" s="6">
         <f>VLOOKUP(M3,Compartments!A:I,9,FALSE)</f>
@@ -3814,22 +3988,22 @@
     </row>
     <row r="4" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E4" s="17">
         <v>0.001</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N4" s="6">
         <f>VLOOKUP(M4,Compartments!A:I,9,FALSE)</f>
@@ -3847,22 +4021,22 @@
     </row>
     <row r="5" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E5" s="17">
         <v>0.002</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP(M5,Compartments!A:I,9,FALSE)</f>
@@ -3879,22 +4053,22 @@
     </row>
     <row r="6" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E6" s="17">
         <v>0.000148</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP(M6,Compartments!A:I,9,FALSE)</f>
@@ -3912,22 +4086,22 @@
     </row>
     <row r="7" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E7" s="17">
         <v>0.0002</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N7" s="6">
         <f>VLOOKUP(M7,Compartments!A:I,9,FALSE)</f>
@@ -3945,7 +4119,7 @@
     </row>
     <row r="8" customHeight="1" spans="13:17">
       <c r="M8" s="18" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="N8" s="6"/>
       <c r="P8" s="17">
@@ -3959,7 +4133,7 @@
     </row>
     <row r="9" customHeight="1" spans="13:17">
       <c r="M9" s="18" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="N9" s="6"/>
       <c r="P9" s="17">
@@ -3970,7 +4144,7 @@
     </row>
     <row r="10" customHeight="1" spans="13:17">
       <c r="M10" s="18" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="N10" s="6"/>
       <c r="P10" s="17">
@@ -3986,7 +4160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -4013,98 +4187,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_dry_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model_with_mass_computation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="Reactions" sheetId="10" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
     <sheet name="dFBA objectives" sheetId="18" r:id="rId13"/>
-    <sheet name="dFBA net reactions" sheetId="12" r:id="rId14"/>
-    <sheet name="dFBA net species" sheetId="13" r:id="rId15"/>
+    <sheet name="dFBA objective reactions" sheetId="12" r:id="rId14"/>
+    <sheet name="dFBA objective species" sheetId="13" r:id="rId15"/>
     <sheet name="Parameters" sheetId="14" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
@@ -575,7 +575,7 @@
     <t>No comment</t>
   </si>
   <si>
-    <t>dFBA net reaction</t>
+    <t>dFBA objective reaction</t>
   </si>
   <si>
     <t>Value</t>
@@ -709,12 +709,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -750,17 +750,17 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -772,7 +772,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -780,7 +780,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,6 +788,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,7 +810,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,14 +818,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -827,13 +827,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,13 +841,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -862,17 +848,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -884,10 +884,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -913,13 +913,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,7 +949,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,49 +1027,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,67 +1045,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,7 +1063,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,12 +1094,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,7 +1120,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,6 +1136,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1166,6 +1181,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1184,168 +1208,144 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1390,14 +1390,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2540,12 +2540,12 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
@@ -3161,7 +3161,7 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="D6" sqref="D6"/>

--- a/tests/multialgorithm/fixtures/test_dry_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model_with_mass_computation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="213">
   <si>
     <t>Id</t>
   </si>
@@ -167,6 +167,12 @@
     <t>pH</t>
   </si>
   <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -561,9 +567,6 @@
   </si>
   <si>
     <t>Metabolism_biomass</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
   </si>
   <si>
     <t>Cell size units</t>
@@ -709,12 +712,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -750,24 +753,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -780,31 +774,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -816,15 +796,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -841,21 +812,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -864,6 +844,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -883,18 +871,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -913,13 +916,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,13 +1012,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,55 +1078,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,91 +1090,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,7 +1123,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1140,51 +1167,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1213,139 +1201,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1390,14 +1393,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1967,16 +1970,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -1987,26 +1990,26 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2047,31 +2050,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>19</v>
@@ -2082,22 +2085,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E2" s="12">
         <v>0</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G2" s="12">
         <v>0</v>
@@ -2106,28 +2109,28 @@
         <v>1</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J2" s="14"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E3" s="12">
         <v>1</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -2136,22 +2139,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
@@ -2160,22 +2163,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E5" s="12">
         <v>0</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -2224,25 +2227,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2253,22 +2256,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2276,22 +2279,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2299,22 +2302,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2322,22 +2325,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2346,22 +2349,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2406,25 +2409,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2435,19 +2438,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2487,19 +2490,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -2510,22 +2513,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2540,7 +2543,7 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2565,22 +2568,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>19</v>
@@ -2591,85 +2594,85 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E2" s="9">
         <v>-3</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E3" s="9">
         <v>-4</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E4" s="9">
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E5" s="9">
         <v>2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2709,22 +2712,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>19</v>
@@ -2735,148 +2738,148 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D4" s="6">
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D5" s="6">
         <v>0.0003</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D6" s="6">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D7" s="6">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D8" s="6">
         <v>0.001</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D9" s="6">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D10" s="2">
         <v>1100</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D11" s="2">
         <v>1000</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2916,16 +2919,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -2967,34 +2970,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>19</v>
@@ -3033,46 +3036,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3159,15 +3162,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="2" customWidth="1"/>
@@ -3213,18 +3216,26 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:1">
+    <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3262,13 +3273,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>19</v>
@@ -3282,28 +3293,28 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="20"/>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3342,40 +3353,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>19</v>
@@ -3386,28 +3397,28 @@
     </row>
     <row r="2" customHeight="1" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I2" s="6">
         <v>4.58e-17</v>
@@ -3416,36 +3427,36 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:15">
       <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I3" s="6">
         <v>1e-12</v>
@@ -3454,13 +3465,13 @@
         <v>1e-13</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3504,25 +3515,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3533,13 +3544,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3548,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H2" s="17"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -3569,19 +3580,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H3" s="17"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -3590,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H4" s="17"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -3611,19 +3622,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H5" s="17"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -3632,19 +3643,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H6" s="17"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
@@ -3653,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="8:8">
@@ -3700,19 +3711,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -3723,114 +3734,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3878,25 +3889,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3905,39 +3916,39 @@
         <v>27</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E2" s="17">
         <v>0.0005</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N2" s="6">
         <f>VLOOKUP(M2,Compartments!A:I,9,FALSE)</f>
@@ -3955,22 +3966,22 @@
     </row>
     <row r="3" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E3" s="17">
         <v>0.0005</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N3" s="6">
         <f>VLOOKUP(M3,Compartments!A:I,9,FALSE)</f>
@@ -3988,22 +3999,22 @@
     </row>
     <row r="4" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E4" s="17">
         <v>0.001</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N4" s="6">
         <f>VLOOKUP(M4,Compartments!A:I,9,FALSE)</f>
@@ -4021,22 +4032,22 @@
     </row>
     <row r="5" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5" s="17">
         <v>0.002</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP(M5,Compartments!A:I,9,FALSE)</f>
@@ -4053,22 +4064,22 @@
     </row>
     <row r="6" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6" s="17">
         <v>0.000148</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP(M6,Compartments!A:I,9,FALSE)</f>
@@ -4086,22 +4097,22 @@
     </row>
     <row r="7" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E7" s="17">
         <v>0.0002</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N7" s="6">
         <f>VLOOKUP(M7,Compartments!A:I,9,FALSE)</f>
@@ -4119,7 +4130,7 @@
     </row>
     <row r="8" customHeight="1" spans="13:17">
       <c r="M8" s="18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N8" s="6"/>
       <c r="P8" s="17">
@@ -4133,7 +4144,7 @@
     </row>
     <row r="9" customHeight="1" spans="13:17">
       <c r="M9" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N9" s="6"/>
       <c r="P9" s="17">
@@ -4144,7 +4155,7 @@
     </row>
     <row r="10" customHeight="1" spans="13:17">
       <c r="M10" s="18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N10" s="6"/>
       <c r="P10" s="17">
@@ -4187,16 +4198,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>19</v>

--- a/tests/multialgorithm/fixtures/test_dry_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model_with_mass_computation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,15 @@
     <sheet name="Parameters" sheetId="14" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
-    <sheet name="References" sheetId="16" r:id="rId19"/>
+    <sheet name="Interpretations" sheetId="21" r:id="rId19"/>
+    <sheet name="References" sheetId="16" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">Submodels!#REF!</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
@@ -55,18 +56,18 @@
     <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="219">
   <si>
     <t>Id</t>
   </si>
@@ -179,6 +180,9 @@
     <t>Evidence</t>
   </si>
   <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
     <t>submodel_1</t>
   </si>
   <si>
@@ -665,10 +669,25 @@
     <t>Genetic variant</t>
   </si>
   <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
     <t>Growth media</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>Experiment design</t>
+  </si>
+  <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
+    <t>Method</t>
   </si>
   <si>
     <t>Title</t>
@@ -714,10 +733,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -753,31 +772,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -797,7 +802,88 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -812,74 +898,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -894,10 +913,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -916,7 +935,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,13 +995,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,7 +1049,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,7 +1097,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,127 +1109,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,21 +1156,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1167,6 +1171,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1178,17 +1197,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1219,140 +1238,140 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1367,6 +1386,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1828,7 +1850,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1836,7 +1858,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -1844,7 +1866,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -1852,31 +1874,31 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
@@ -1887,25 +1909,25 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="26"/>
     </row>
     <row r="9" ht="40.5" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="27"/>
     </row>
     <row r="10" ht="27" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="26"/>
+      <c r="B10" s="27"/>
     </row>
     <row r="11" ht="27" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1913,25 +1935,25 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="28"/>
     </row>
     <row r="13" ht="27" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="27"/>
+      <c r="B13" s="28"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="27"/>
+      <c r="B14" s="28"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="27"/>
+      <c r="B15" s="28"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1946,23 +1968,23 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1970,10 +1992,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -1982,34 +2004,37 @@
         <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>62</v>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>62</v>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2022,14 +2047,14 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:F5"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
@@ -2038,11 +2063,11 @@
     <col min="3" max="3" width="13.2833333333333" style="2"/>
     <col min="4" max="4" width="49.1666666666667" style="2"/>
     <col min="5" max="10" width="8.78333333333333" style="2"/>
-    <col min="11" max="1026" width="8.78333333333333" style="10"/>
-    <col min="1027" max="16384" width="9" style="10"/>
+    <col min="11" max="1027" width="8.78333333333333" style="11"/>
+    <col min="1028" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2050,25 +2075,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
@@ -2077,113 +2102,116 @@
         <v>36</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="12">
+        <v>137</v>
+      </c>
+      <c r="E2" s="13">
         <v>0</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="12">
+      <c r="F2" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="13">
         <v>0</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="13">
         <v>1</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="J2" s="14"/>
+      <c r="I2" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="12">
+        <v>142</v>
+      </c>
+      <c r="E3" s="13">
         <v>1</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
+      <c r="F3" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="12">
+        <v>145</v>
+      </c>
+      <c r="E4" s="13">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="F4" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" s="12">
+        <v>42</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="13">
         <v>0</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D5">
@@ -2198,14 +2226,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
@@ -2214,12 +2242,12 @@
     <col min="4" max="4" width="9.25" style="2"/>
     <col min="5" max="5" width="8.78333333333333" style="2"/>
     <col min="6" max="6" width="60.625" style="2" customWidth="1"/>
-    <col min="7" max="9" width="9.25" style="2"/>
-    <col min="10" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="7" max="10" width="9.25" style="2"/>
+    <col min="11" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2227,19 +2255,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2248,133 +2276,142 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:10">
+    <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>151</v>
+        <v>135</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:10">
+      <c r="K2"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:10">
+      <c r="K3"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:12">
+      <c r="K4"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>159</v>
+        <v>143</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:12">
+      <c r="K5"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" customHeight="1" spans="8:10">
+      <c r="K6"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" customHeight="1" spans="8:11">
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
+      <c r="K7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2386,14 +2423,14 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -2401,7 +2438,7 @@
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2409,19 +2446,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2430,27 +2467,30 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>166</v>
+        <v>38</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2465,24 +2505,24 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="5" width="8.78333333333333" style="7"/>
-    <col min="6" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="5" width="8.78333333333333" style="8"/>
+    <col min="6" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2490,13 +2530,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2505,30 +2545,33 @@
         <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>168</v>
+    <row r="2" customHeight="1" spans="1:9">
+      <c r="A2" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>169</v>
+        <v>38</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2541,138 +2584,141 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="3" width="8.78333333333333" style="7"/>
-    <col min="4" max="5" width="9.875" style="7"/>
-    <col min="6" max="7" width="8.78333333333333" style="7"/>
-    <col min="8" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="3" width="8.78333333333333" style="8"/>
+    <col min="4" max="5" width="9.875" style="8"/>
+    <col min="6" max="7" width="8.78333333333333" style="8"/>
+    <col min="8" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="8" t="s">
+    <row r="1" customHeight="1" spans="1:11">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="D1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" customHeight="1" spans="1:10">
+      <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>166</v>
+      <c r="B2" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="9">
+        <v>97</v>
+      </c>
+      <c r="E2" s="10">
         <v>-3</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>174</v>
+      <c r="F2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>166</v>
+      <c r="B3" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="9">
+        <v>99</v>
+      </c>
+      <c r="E3" s="10">
         <v>-4</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>138</v>
+      <c r="F3" s="8" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>166</v>
+      <c r="B4" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="9">
+        <v>100</v>
+      </c>
+      <c r="E4" s="10">
         <v>1</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>138</v>
+      <c r="F4" s="8" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="B5" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="10">
         <v>2</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>138</v>
+      <c r="F5" s="8" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2685,26 +2731,26 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:A11"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="8.78333333333333" style="2"/>
     <col min="4" max="4" width="9.25" style="2"/>
-    <col min="5" max="8" width="8.78333333333333" style="2"/>
-    <col min="9" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="5" max="9" width="8.78333333333333" style="2"/>
+    <col min="10" max="1026" width="8.78333333333333" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2712,16 +2758,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2730,21 +2776,24 @@
         <v>36</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:9">
+    <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -2752,134 +2801,134 @@
       <c r="F2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>184</v>
+      <c r="J2" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="6">
+        <v>187</v>
+      </c>
+      <c r="D5" s="7">
         <v>0.0003</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D6" s="6">
+        <v>187</v>
+      </c>
+      <c r="D6" s="7">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="6">
+        <v>187</v>
+      </c>
+      <c r="D7" s="7">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D8" s="6">
+        <v>194</v>
+      </c>
+      <c r="D8" s="7">
         <v>0.001</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="6">
+        <v>153</v>
+      </c>
+      <c r="D9" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D10" s="2">
         <v>1100</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D11" s="2">
         <v>1000</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2895,23 +2944,23 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="A1:H1"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2919,10 +2968,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2931,9 +2980,12 @@
         <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2947,14 +2999,14 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q45" sqref="Q45"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2962,7 +3014,7 @@
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:14">
+    <row r="1" customHeight="1" spans="1:22">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2970,16 +3022,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>197</v>
+        <v>74</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>198</v>
@@ -2988,21 +3040,45 @@
         <v>199</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3013,6 +3089,168 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="2" customWidth="1"/>
+    <col min="3" max="1022" width="9.10833333333333" style="2"/>
+    <col min="1023" max="1023" width="9.10833333333333"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1025" width="8.78333333333333" style="23"/>
+    <col min="1026" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ1"/>
@@ -3036,46 +3274,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3089,70 +3327,6 @@
   <autoFilter ref="A1:D1">
     <extLst/>
   </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="$A1:$XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="22"/>
-    <col min="1026" max="16384" width="9" style="22"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:1">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
@@ -3164,10 +3338,10 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A6" sqref="A6:B6"/>
+      <selection pane="topRight" activeCell="B6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
@@ -3175,8 +3349,8 @@
     <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="2" customWidth="1"/>
     <col min="3" max="1018" width="8.78333333333333" style="2"/>
-    <col min="1019" max="1019" width="8.78333333333333" style="21"/>
-    <col min="1020" max="16384" width="9" style="21"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="22"/>
+    <col min="1020" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -3248,24 +3422,24 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ3"/>
+  <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="6" width="8.78333333333333" style="2"/>
-    <col min="7" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="1" max="7" width="8.78333333333333" style="2"/>
+    <col min="8" max="1026" width="8.78333333333333" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1024">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1025">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3282,39 +3456,42 @@
         <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMH1" s="3"/>
       <c r="AMI1" s="3"/>
       <c r="AMJ1" s="3"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:6">
+      <c r="AMK1" s="3"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="F2" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3327,60 +3504,60 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2:L3"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="9" width="8.78333333333333" style="2"/>
     <col min="10" max="10" width="9.375" style="2"/>
-    <col min="11" max="1030" width="8.78333333333333" style="2"/>
-    <col min="1031" max="16384" width="9" style="2"/>
+    <col min="11" max="1031" width="8.78333333333333" style="2"/>
+    <col min="1032" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A1" s="19" t="s">
+    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
@@ -3389,89 +3566,92 @@
         <v>36</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:15">
+    <row r="2" customHeight="1" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="6">
+        <v>62</v>
+      </c>
+      <c r="I2" s="7">
         <v>4.58e-17</v>
       </c>
       <c r="J2" s="2">
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:16">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="I3" s="7">
+        <v>1e-12</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1e-13</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:15">
-      <c r="A3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="6">
-        <v>1e-12</v>
-      </c>
-      <c r="J3" s="6">
-        <v>1e-13</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" s="2" t="s">
         <v>68</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3487,14 +3667,14 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3503,11 +3683,11 @@
     <col min="4" max="5" width="10.8166666666667" style="2"/>
     <col min="6" max="6" width="8.78333333333333" style="2"/>
     <col min="7" max="7" width="15" style="2"/>
-    <col min="8" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="8" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:11">
+    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3515,19 +3695,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3536,21 +3716,24 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3558,20 +3741,20 @@
       <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="17"/>
+      <c r="G2" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -3579,20 +3762,20 @@
       <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="17"/>
+      <c r="G3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -3600,20 +3783,20 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="17"/>
+      <c r="G4" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -3621,20 +3804,20 @@
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="17"/>
+      <c r="G5" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -3642,20 +3825,20 @@
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="17"/>
+      <c r="G6" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
@@ -3663,15 +3846,15 @@
       <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>77</v>
+      <c r="G7" s="18" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="8:8">
-      <c r="H13" s="11"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" customHeight="1" spans="6:6">
-      <c r="F14" s="11"/>
+      <c r="F14" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I7">
@@ -3686,24 +3869,24 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="15.7416666666667" style="2"/>
-    <col min="7" max="1025" width="9.10833333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="7" max="1026" width="9.10833333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3711,13 +3894,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3726,122 +3909,125 @@
         <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3857,14 +4043,14 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R12" sqref="R12"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3874,14 +4060,14 @@
     <col min="3" max="3" width="10" style="2" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.75" style="2" customWidth="1"/>
-    <col min="6" max="15" width="8.78333333333333" style="2"/>
-    <col min="16" max="16" width="10.25" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.25" style="2"/>
-    <col min="18" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="6" max="16" width="8.78333333333333" style="2"/>
+    <col min="17" max="17" width="10.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.25" style="2"/>
+    <col min="19" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:17">
+    <row r="1" customHeight="1" spans="1:18">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3889,19 +4075,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3910,259 +4096,262 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="N1" s="4" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" outlineLevel="2" spans="1:17">
+      <c r="R1" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" outlineLevel="2" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="17">
+        <v>99</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="18">
         <v>0.0005</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="6">
-        <f>VLOOKUP(M2,Compartments!A:I,9,FALSE)</f>
+      <c r="G2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="7">
+        <f>VLOOKUP(N2,Compartments!A:I,9,FALSE)</f>
         <v>4.58e-17</v>
       </c>
-      <c r="O2" s="2">
+      <c r="P2" s="2">
         <f>'Species types'!E3</f>
         <v>2</v>
       </c>
-      <c r="P2" s="17">
-        <f t="shared" ref="P2:P7" si="0">O2*N2</f>
+      <c r="Q2" s="18">
+        <f t="shared" ref="Q2:Q7" si="0">P2*O2</f>
         <v>9.16e-17</v>
       </c>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" customHeight="1" outlineLevel="2" spans="1:17">
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" customHeight="1" outlineLevel="2" spans="1:18">
       <c r="A3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0.0005</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="17">
-        <v>0.0005</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N3" s="6">
-        <f>VLOOKUP(M3,Compartments!A:I,9,FALSE)</f>
+      <c r="N3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="7">
+        <f>VLOOKUP(N3,Compartments!A:I,9,FALSE)</f>
         <v>4.58e-17</v>
       </c>
-      <c r="O3" s="2">
+      <c r="P3" s="2">
         <f>'Species types'!E5</f>
         <v>4</v>
       </c>
-      <c r="P3" s="17">
+      <c r="Q3" s="18">
         <f t="shared" si="0"/>
         <v>1.832e-16</v>
       </c>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" customHeight="1" outlineLevel="2" spans="1:17">
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" customHeight="1" outlineLevel="2" spans="1:18">
       <c r="A4" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="17">
+        <v>102</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="18">
         <v>0.001</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="6">
-        <f>VLOOKUP(M4,Compartments!A:I,9,FALSE)</f>
+      <c r="G4" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="7">
+        <f>VLOOKUP(N4,Compartments!A:I,9,FALSE)</f>
         <v>4.58e-17</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="2">
         <f>'Species types'!E6</f>
         <v>5</v>
       </c>
-      <c r="P4" s="17">
+      <c r="Q4" s="18">
         <f t="shared" si="0"/>
         <v>2.29e-16</v>
       </c>
-      <c r="Q4" s="6"/>
-    </row>
-    <row r="5" customHeight="1" outlineLevel="2" spans="1:17">
+      <c r="R4" s="7"/>
+    </row>
+    <row r="5" customHeight="1" outlineLevel="2" spans="1:18">
       <c r="A5" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="17">
+        <v>103</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="18">
         <v>0.002</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" s="6">
-        <f>VLOOKUP(M5,Compartments!A:I,9,FALSE)</f>
+      <c r="G5" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="7">
+        <f>VLOOKUP(N5,Compartments!A:I,9,FALSE)</f>
         <v>4.58e-17</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>6</v>
       </c>
-      <c r="P5" s="17">
+      <c r="Q5" s="18">
         <f t="shared" si="0"/>
         <v>2.748e-16</v>
       </c>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" customHeight="1" outlineLevel="2" spans="1:17">
+      <c r="R5" s="7"/>
+    </row>
+    <row r="6" customHeight="1" outlineLevel="2" spans="1:18">
       <c r="A6" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="17">
+        <v>104</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="18">
         <v>0.000148</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6" s="6">
-        <f>VLOOKUP(M6,Compartments!A:I,9,FALSE)</f>
+      <c r="G6" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="7">
+        <f>VLOOKUP(N6,Compartments!A:I,9,FALSE)</f>
         <v>1e-12</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
         <f>'Species types'!E2</f>
         <v>1</v>
       </c>
-      <c r="P6" s="17">
+      <c r="Q6" s="18">
         <f t="shared" si="0"/>
         <v>1e-12</v>
       </c>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" customHeight="1" outlineLevel="2" spans="1:17">
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" customHeight="1" outlineLevel="2" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="17">
+        <v>105</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="18">
         <v>0.0002</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N7" s="6">
-        <f>VLOOKUP(M7,Compartments!A:I,9,FALSE)</f>
+      <c r="G7" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" s="7">
+        <f>VLOOKUP(N7,Compartments!A:I,9,FALSE)</f>
         <v>1e-12</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <f>'Species types'!E3</f>
         <v>2</v>
       </c>
-      <c r="P7" s="17">
+      <c r="Q7" s="18">
         <f t="shared" si="0"/>
         <v>2e-12</v>
       </c>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" customHeight="1" spans="13:17">
-      <c r="M8" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="N8" s="6"/>
-      <c r="P8" s="17">
-        <f>SUMIF(M$2:M$7,"c",P$2:P$7)</f>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" customHeight="1" spans="14:18">
+      <c r="N8" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="Q8" s="18">
+        <f>SUMIF(N$2:N$7,"c",Q$2:Q$7)</f>
         <v>7.786e-16</v>
       </c>
-      <c r="Q8" s="6">
-        <f>P8*Parameters!D2</f>
+      <c r="R8" s="7">
+        <f>Q8*Parameters!D2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="13:17">
-      <c r="M9" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="N9" s="6"/>
-      <c r="P9" s="17">
-        <f>SUMIF(M$2:M$7,"e",P$2:P$7)</f>
+    <row r="9" customHeight="1" spans="14:18">
+      <c r="N9" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="Q9" s="18">
+        <f>SUMIF(N$2:N$7,"e",Q$2:Q$7)</f>
         <v>3e-12</v>
       </c>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" customHeight="1" spans="13:17">
-      <c r="M10" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="N10" s="6"/>
-      <c r="P10" s="17">
-        <f>SUBTOTAL(9,P2:P7)</f>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" customHeight="1" spans="14:18">
+      <c r="N10" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="Q10" s="18">
+        <f>SUBTOTAL(9,Q2:Q7)</f>
         <v>3.0007786e-12</v>
       </c>
-      <c r="Q10" s="6"/>
+      <c r="R10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4174,23 +4363,23 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4198,10 +4387,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
@@ -4209,10 +4398,13 @@
       <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>

--- a/tests/multialgorithm/fixtures/test_dry_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model_with_mass_computation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="11" activeTab="16"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="2" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="218">
   <si>
     <t>Id</t>
   </si>
@@ -174,7 +174,7 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>Algorithm</t>
+    <t>Framework</t>
   </si>
   <si>
     <t>Evidence</t>
@@ -189,7 +189,7 @@
     <t>Metabolism</t>
   </si>
   <si>
-    <t>dfba</t>
+    <t>dynamic_flux_balance_analysis</t>
   </si>
   <si>
     <t>For testing</t>
@@ -201,7 +201,7 @@
     <t>RNA degradation</t>
   </si>
   <si>
-    <t>ssa</t>
+    <t>stochastic_simulation_algorithm</t>
   </si>
   <si>
     <t>Biological type</t>
@@ -240,13 +240,13 @@
     <t>Cell</t>
   </si>
   <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
   </si>
   <si>
     <t>e</t>
@@ -255,7 +255,7 @@
     <t>g</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>normal_distribution</t>
   </si>
   <si>
     <t>l</t>
@@ -270,7 +270,7 @@
     <t>Extracellular space</t>
   </si>
   <si>
-    <t>extracellular</t>
+    <t>extracellular_compartment</t>
   </si>
   <si>
     <t>density_e</t>
@@ -526,9 +526,6 @@
   </si>
   <si>
     <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
   </si>
   <si>
     <t>k_cat_1_for * max( specie_1[e], specie_2[e] )</t>
@@ -731,11 +728,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
@@ -780,36 +777,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,8 +793,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,15 +844,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -868,8 +859,37 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -883,7 +903,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -891,30 +911,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -935,7 +932,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,7 +944,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,37 +1076,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,37 +1094,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,79 +1106,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,11 +1135,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1151,7 +1154,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1188,35 +1191,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1235,143 +1212,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1415,14 +1412,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1850,7 +1846,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1858,7 +1854,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -1866,7 +1862,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -1874,31 +1870,31 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
@@ -1909,25 +1905,25 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="25"/>
     </row>
     <row r="9" ht="40.5" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="26"/>
     </row>
     <row r="10" ht="27" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="27"/>
+      <c r="B10" s="26"/>
     </row>
     <row r="11" ht="27" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1935,25 +1931,25 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="27"/>
     </row>
     <row r="13" ht="27" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="28"/>
+      <c r="B13" s="27"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="28"/>
+      <c r="B14" s="27"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2233,7 +2229,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
@@ -2295,11 +2291,9 @@
       <c r="D2" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>138</v>
@@ -2311,7 +2305,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>140</v>
@@ -2319,11 +2313,9 @@
       <c r="D3" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>138</v>
@@ -2335,7 +2327,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>143</v>
@@ -2343,11 +2335,9 @@
       <c r="D4" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>138</v>
@@ -2359,19 +2349,17 @@
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>138</v>
@@ -2384,7 +2372,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>146</v>
@@ -2392,11 +2380,9 @@
       <c r="D6" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>138</v>
@@ -2455,10 +2441,10 @@
         <v>96</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2478,13 +2464,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>34</v>
@@ -2536,7 +2522,7 @@
         <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2556,10 +2542,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
@@ -2571,7 +2557,7 @@
         <v>63</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2611,13 +2597,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>106</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>96</v>
@@ -2640,13 +2626,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>174</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>97</v>
@@ -2658,18 +2644,18 @@
         <v>139</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>177</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>99</v>
@@ -2683,13 +2669,13 @@
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>179</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>100</v>
@@ -2703,13 +2689,13 @@
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="C5" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>101</v>
@@ -2733,12 +2719,12 @@
   <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2761,10 +2747,10 @@
         <v>74</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>96</v>
@@ -2787,14 +2773,12 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2">
         <v>0</v>
       </c>
@@ -2802,43 +2786,43 @@
         <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D4" s="7">
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D5" s="7">
         <v>0.0003</v>
@@ -2849,38 +2833,38 @@
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D6" s="7">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D7" s="7">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="D8" s="7">
         <v>0.001</v>
@@ -2891,44 +2875,35 @@
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="D9" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="D10" s="2">
         <v>1100</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="D11" s="2">
         <v>1000</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2946,7 +2921,7 @@
   <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3022,10 +2997,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>96</v>
@@ -3034,10 +3009,10 @@
         <v>74</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>199</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>29</v>
@@ -3052,22 +3027,22 @@
         <v>33</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>18</v>
@@ -3117,10 +3092,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>96</v>
@@ -3129,7 +3104,7 @@
         <v>74</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>18</v>
@@ -3197,31 +3172,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="23"/>
-    <col min="1026" max="16384" width="9" style="23"/>
+    <col min="1" max="1025" width="8.78333333333333" style="22"/>
+    <col min="1026" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3231,15 +3206,15 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3274,46 +3249,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3349,8 +3324,8 @@
     <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="2" customWidth="1"/>
     <col min="3" max="1018" width="8.78333333333333" style="2"/>
-    <col min="1019" max="1019" width="8.78333333333333" style="22"/>
-    <col min="1020" max="16384" width="9" style="22"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="21"/>
+    <col min="1020" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -3429,7 +3404,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3478,7 +3453,7 @@
       <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="20"/>
       <c r="G2" s="2" t="s">
         <v>41</v>
       </c>
@@ -3511,7 +3486,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3523,7 +3498,7 @@
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3741,10 +3716,10 @@
       <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
@@ -3762,10 +3737,10 @@
       <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="18"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
@@ -3783,10 +3758,10 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
@@ -3804,10 +3779,10 @@
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
@@ -3825,10 +3800,10 @@
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
@@ -3846,7 +3821,7 @@
       <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4050,7 +4025,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -4127,13 +4102,13 @@
       <c r="C2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>0.0005</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>114</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -4147,7 +4122,7 @@
         <f>'Species types'!E3</f>
         <v>2</v>
       </c>
-      <c r="Q2" s="18">
+      <c r="Q2" s="17">
         <f t="shared" ref="Q2:Q7" si="0">P2*O2</f>
         <v>9.16e-17</v>
       </c>
@@ -4160,13 +4135,13 @@
       <c r="C3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>0.0005</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>114</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -4180,7 +4155,7 @@
         <f>'Species types'!E5</f>
         <v>4</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="17">
         <f t="shared" si="0"/>
         <v>1.832e-16</v>
       </c>
@@ -4193,13 +4168,13 @@
       <c r="C4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>0.001</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>114</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -4213,7 +4188,7 @@
         <f>'Species types'!E6</f>
         <v>5</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="17">
         <f t="shared" si="0"/>
         <v>2.29e-16</v>
       </c>
@@ -4226,13 +4201,13 @@
       <c r="C5" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>0.002</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>114</v>
       </c>
       <c r="N5" s="2" t="s">
@@ -4245,7 +4220,7 @@
       <c r="P5" s="2">
         <v>6</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="17">
         <f t="shared" si="0"/>
         <v>2.748e-16</v>
       </c>
@@ -4258,13 +4233,13 @@
       <c r="C6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>0.000148</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>114</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -4278,7 +4253,7 @@
         <f>'Species types'!E2</f>
         <v>1</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="17">
         <f t="shared" si="0"/>
         <v>1e-12</v>
       </c>
@@ -4291,13 +4266,13 @@
       <c r="C7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>0.0002</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>114</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -4311,18 +4286,18 @@
         <f>'Species types'!E3</f>
         <v>2</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="17">
         <f t="shared" si="0"/>
         <v>2e-12</v>
       </c>
       <c r="R7" s="7"/>
     </row>
     <row r="8" customHeight="1" spans="14:18">
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="18" t="s">
         <v>120</v>
       </c>
       <c r="O8" s="7"/>
-      <c r="Q8" s="18">
+      <c r="Q8" s="17">
         <f>SUMIF(N$2:N$7,"c",Q$2:Q$7)</f>
         <v>7.786e-16</v>
       </c>
@@ -4332,22 +4307,22 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="14:18">
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="18" t="s">
         <v>121</v>
       </c>
       <c r="O9" s="7"/>
-      <c r="Q9" s="18">
+      <c r="Q9" s="17">
         <f>SUMIF(N$2:N$7,"e",Q$2:Q$7)</f>
         <v>3e-12</v>
       </c>
       <c r="R9" s="7"/>
     </row>
     <row r="10" customHeight="1" spans="14:18">
-      <c r="N10" s="19" t="s">
+      <c r="N10" s="18" t="s">
         <v>122</v>
       </c>
       <c r="O10" s="7"/>
-      <c r="Q10" s="18">
+      <c r="Q10" s="17">
         <f>SUBTOTAL(9,Q2:Q7)</f>
         <v>3.0007786e-12</v>
       </c>

--- a/tests/multialgorithm/fixtures/test_dry_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model_with_mass_computation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="2" activeTab="15"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,7 @@
     <t>Temperature units</t>
   </si>
   <si>
-    <t>C</t>
+    <t>degC</t>
   </si>
   <si>
     <t>pH</t>
@@ -728,12 +728,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -777,11 +777,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -793,9 +813,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -813,33 +835,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -852,17 +852,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -882,28 +889,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -912,6 +898,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -932,6 +932,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -944,7 +950,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,13 +1076,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,145 +1112,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,6 +1159,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1189,15 +1198,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1215,15 +1215,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1232,138 +1223,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1412,13 +1412,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2291,7 +2291,6 @@
       <c r="D2" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>153</v>
       </c>
@@ -2313,7 +2312,6 @@
       <c r="D3" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>155</v>
       </c>
@@ -2335,7 +2333,6 @@
       <c r="D4" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
         <v>157</v>
       </c>
@@ -2357,7 +2354,6 @@
       <c r="D5" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>160</v>
       </c>
@@ -2380,7 +2376,6 @@
       <c r="D6" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>162</v>
       </c>
@@ -2719,7 +2714,7 @@
   <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2778,7 +2773,6 @@
       <c r="B2" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="2"/>
       <c r="D2" s="2">
         <v>0</v>
       </c>
@@ -3313,10 +3307,10 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B6" sqref="A6:B6"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>

--- a/tests/multialgorithm/fixtures/test_dry_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model_with_mass_computation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="6" activeTab="21"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="233">
   <si>
     <t>Id</t>
   </si>
@@ -680,6 +680,9 @@
     <t>Method</t>
   </si>
   <si>
+    <t>Authors</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
@@ -746,6 +749,9 @@
     <t>Target</t>
   </si>
   <si>
+    <t>Target submodel</t>
+  </si>
+  <si>
     <t>Target type</t>
   </si>
   <si>
@@ -759,9 +765,6 @@
   </si>
   <si>
     <t>Intention type</t>
-  </si>
-  <si>
-    <t>Authors</t>
   </si>
   <si>
     <t>Date</t>
@@ -773,11 +776,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -819,16 +822,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -839,6 +841,22 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -857,60 +875,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -924,15 +890,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -946,8 +919,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -956,6 +944,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -976,13 +979,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,13 +1015,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,19 +1051,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,55 +1063,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,13 +1105,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,25 +1123,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,13 +1153,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,6 +1179,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1218,17 +1251,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1242,21 +1271,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1265,154 +1279,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1481,12 +1484,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1889,15 +1886,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="24"/>
-    <col min="1026" max="16384" width="9" style="24"/>
+    <col min="1" max="1025" width="8.78333333333333" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1905,7 +1902,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1913,7 +1910,7 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1921,7 +1918,7 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1929,7 +1926,7 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1937,7 +1934,7 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1945,7 +1942,7 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1953,7 +1950,7 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1961,25 +1958,25 @@
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="24"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="26"/>
+      <c r="B10" s="24"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="26"/>
+      <c r="B11" s="24"/>
     </row>
     <row r="12" customHeight="1" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3090,14 +3087,14 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3108,7 +3105,7 @@
     <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+    <row r="1" ht="15.1" customHeight="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3141,6 +3138,9 @@
       </c>
       <c r="K1" s="5" t="s">
         <v>24</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
@@ -3273,46 +3273,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>15</v>
@@ -3358,31 +3358,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>15</v>
@@ -3400,14 +3400,14 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3415,7 +3415,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:16">
+    <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3426,43 +3426,46 @@
         <v>71</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>231</v>
+        <v>203</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
